--- a/tests/test_data/test_ghed.XLSX
+++ b/tests/test_data/test_ghed.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucapicci/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucapicci/Documents/GitHub/bblocks_data_importers/tests/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37E87DD4-2C8C-9447-A938-709A2D732B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D516BA8D-4E10-7546-A2F1-77E2A519873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1740" windowWidth="28800" windowHeight="15700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="97">
   <si>
     <t>country</t>
   </si>
@@ -302,9 +302,6 @@
     </r>
   </si>
   <si>
-    <t>Country footnote</t>
-  </si>
-  <si>
     <t>2019 - 2021: Sum of its components</t>
   </si>
   <si>
@@ -365,6 +362,12 @@
   </si>
   <si>
     <t>WHO Global Health Expenditure, partial Update April 2024</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Countries and territories footnote</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,13 +493,32 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -507,7 +529,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,6 +576,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1211,7 +1236,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9BD4AF2-6059-45F4-93EC-79AD3E2F0AEC}" name="Table1" displayName="Table1" ref="A1:O8" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:O8" xr:uid="{F9BD4AF2-6059-45F4-93EC-79AD3E2F0AEC}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{FB232FB0-9A07-4C12-852C-1009328847EC}" name="country" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{FB232FB0-9A07-4C12-852C-1009328847EC}" name="location" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{2E7AE549-2AB8-4C3E-80C0-DA245617CDF8}" name="code" dataDxfId="36"/>
     <tableColumn id="3" xr3:uid="{4856093D-D94B-4BC5-85A4-196ED8565480}" name="region" dataDxfId="35"/>
     <tableColumn id="4" xr3:uid="{963F354E-C2CC-4DCC-AB10-B9A9B3E46ED7}" name="income" dataDxfId="34"/>
@@ -1255,7 +1280,7 @@
     <sortCondition ref="A2:A7"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3692F373-F76C-486F-A227-CB909FA2B18D}" name="country" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{3692F373-F76C-486F-A227-CB909FA2B18D}" name="location" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{C45EC149-3621-48EA-B2C0-296AB2AC7D56}" name="code" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{AD776075-7E1A-4540-B831-E1281BFAEE21}" name="region (WHO)" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{471C425A-578A-4EC3-9CF3-3B8B2247EF12}" name="Income group" dataDxfId="8"/>
@@ -1266,7 +1291,7 @@
     <tableColumn id="8" xr3:uid="{0CED9B33-1E3B-4358-A7D0-2F573241BB10}" name="Comments" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{F9F29302-1AFC-4251-BA65-0B24EFE31FAA}" name="Data type" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{F8031922-7310-43DC-9BBC-4EF2E56104D3}" name="Methods of estimation" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{EB18BCC0-DF5A-4D32-8747-4E7125159A40}" name="Country footnote" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{EB18BCC0-DF5A-4D32-8747-4E7125159A40}" name="Countries and territories footnote" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1541,7 +1566,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1584,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -2177,9 +2202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E690489A-5265-4B9E-A6F3-4FD88046AA2E}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2196,7 +2221,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -2228,8 +2253,8 @@
       <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>81</v>
+      <c r="L1" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2255,14 +2280,14 @@
         <v>52</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>60</v>
@@ -2291,13 +2316,13 @@
         <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>60</v>
@@ -2326,14 +2351,14 @@
         <v>54</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>60</v>
@@ -2362,13 +2387,13 @@
         <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>56</v>
@@ -2400,13 +2425,13 @@
         <v>57</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
@@ -2436,7 +2461,7 @@
         <v>59</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>73</v>
@@ -2473,7 +2498,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,7 +2508,7 @@
     </row>
     <row r="3" spans="1:1" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,6 +2526,44 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d826663f-ab37-485f-a649-46f9d1a50c32" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d826663f-ab37-485f-a649-46f9d1a50c32">
+      <UserInfo>
+        <DisplayName>DOLGIKH, Evgeniy Aleksandrovisch</DisplayName>
+        <AccountId>65</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <StartDate xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d" xsi:nil="true"/>
+    <StaffName xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </StaffName>
+    <EndDate xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d" xsi:nil="true"/>
+    <DateandTIme xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d" xsi:nil="true"/>
+    <StaffName_x0028_linkedtoitemwitheditmenu_x0029_ xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FD0D89BC3FB574C967F665897DAD8FE" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="110930781e5e7e40098486eee6b92f4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="235bae33-d05f-4820-999b-fe3f93f5f52d" xmlns:ns3="d826663f-ab37-485f-a649-46f9d1a50c32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd77d0087564597155fb057b9075fff2" ns2:_="" ns3:_="">
     <xsd:import namespace="235bae33-d05f-4820-999b-fe3f93f5f52d"/>
@@ -2801,45 +2864,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d826663f-ab37-485f-a649-46f9d1a50c32" xsi:nil="true"/>
-    <SharedWithUsers xmlns="d826663f-ab37-485f-a649-46f9d1a50c32">
-      <UserInfo>
-        <DisplayName>DOLGIKH, Evgeniy Aleksandrovisch</DisplayName>
-        <AccountId>65</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <StartDate xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d" xsi:nil="true"/>
-    <StaffName xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </StaffName>
-    <EndDate xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d" xsi:nil="true"/>
-    <DateandTIme xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d" xsi:nil="true"/>
-    <StaffName_x0028_linkedtoitemwitheditmenu_x0029_ xmlns="235bae33-d05f-4820-999b-fe3f93f5f52d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA7843D1-35F2-4434-86EC-F76B66453ADD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5641499-BD5F-4A09-9603-DAAA9BD57351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="235bae33-d05f-4820-999b-fe3f93f5f52d"/>
+    <ds:schemaRef ds:uri="d826663f-ab37-485f-a649-46f9d1a50c32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D89FA5-5694-4501-ABB0-E7AC851FFF67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2856,23 +2900,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5641499-BD5F-4A09-9603-DAAA9BD57351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="235bae33-d05f-4820-999b-fe3f93f5f52d"/>
-    <ds:schemaRef ds:uri="d826663f-ab37-485f-a649-46f9d1a50c32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA7843D1-35F2-4434-86EC-F76B66453ADD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>